--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97258\Documents\Pareto Course\luz-new\Luz-serverside\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\סופר\Documents\LUZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E269D342-4707-46BA-821C-B55DC845F2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -216,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -679,7 +678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -28913,10 +28912,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29011,8 +29012,8 @@
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>13</v>
+      <c r="C5" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>10</v>
@@ -29031,8 +29032,8 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>13</v>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>10</v>
@@ -29072,7 +29073,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>10</v>
@@ -30140,7 +30141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -31366,7 +31367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
@@ -32594,10 +32595,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -33823,7 +33824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -35050,7 +35051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="1"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="61">
   <si>
     <t>WEEK_NUM</t>
   </si>
@@ -211,6 +211,9 @@
   <si>
     <t>מבוא לצד שרת</t>
   </si>
+  <si>
+    <t>העשרה</t>
+  </si>
 </sst>
 </file>
 
@@ -259,7 +262,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +359,12 @@
         <bgColor rgb="FFC5E0B3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFA8D08D"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -384,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,6 +471,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -28915,8 +28927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29041,8 +29053,8 @@
       <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>11</v>
+      <c r="F6" s="27" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -30144,7 +30156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -30262,8 +30276,8 @@
       <c r="C6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>25</v>
+      <c r="D6" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>25</v>

--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="2"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -28927,8 +28927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" activeCellId="1" sqref="F10 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28990,8 +28990,8 @@
       <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>10</v>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>11</v>
@@ -29010,8 +29010,8 @@
       <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>10</v>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>11</v>
@@ -29030,8 +29030,8 @@
       <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>10</v>
+      <c r="E5" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>11</v>
@@ -29051,7 +29051,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>60</v>
@@ -29071,7 +29071,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>18</v>
@@ -29087,8 +29087,8 @@
       <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>10</v>
+      <c r="D8" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>8</v>
@@ -29107,8 +29107,8 @@
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>10</v>
+      <c r="D9" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>8</v>
@@ -29127,8 +29127,8 @@
       <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>10</v>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>8</v>
@@ -29147,8 +29147,8 @@
       <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>10</v>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>8</v>
@@ -30156,8 +30156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31385,7 +31385,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31504,8 +31504,8 @@
       <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>26</v>
+      <c r="D6" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>26</v>
@@ -32613,7 +32613,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33841,7 +33841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -28928,7 +28928,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" activeCellId="1" sqref="F10 D9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29087,8 +29087,8 @@
       <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>16</v>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>8</v>
@@ -29107,8 +29107,8 @@
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>16</v>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>8</v>
@@ -29128,7 +29128,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>8</v>
@@ -29148,7 +29148,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>8</v>

--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="1"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,12 +309,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA8D08D"/>
         <bgColor rgb="FFA8D08D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD965"/>
-        <bgColor rgb="FFFFD965"/>
       </patternFill>
     </fill>
     <fill>
@@ -393,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -440,40 +434,37 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -28927,8 +28918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28942,19 +28933,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="7">
-        <v>43697</v>
+        <v>45158</v>
       </c>
       <c r="C1" s="7">
-        <v>43698</v>
+        <v>45159</v>
       </c>
       <c r="D1" s="7">
-        <v>43699</v>
+        <v>45160</v>
       </c>
       <c r="E1" s="7">
-        <v>43700</v>
+        <v>45161</v>
       </c>
       <c r="F1" s="7">
-        <v>43701</v>
+        <v>45162</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -29053,7 +29044,7 @@
       <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -30157,7 +30148,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30171,19 +30162,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="7">
-        <v>43704</v>
+        <v>45165</v>
       </c>
       <c r="C1" s="7">
-        <v>43705</v>
+        <v>45166</v>
       </c>
       <c r="D1" s="7">
-        <v>43706</v>
+        <v>45167</v>
       </c>
       <c r="E1" s="7">
-        <v>43707</v>
+        <v>45168</v>
       </c>
       <c r="F1" s="7">
-        <v>43708</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -30210,19 +30201,19 @@
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -30230,19 +30221,19 @@
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -30250,19 +30241,19 @@
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -30270,19 +30261,19 @@
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -30299,7 +30290,7 @@
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -30310,19 +30301,19 @@
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -30330,19 +30321,19 @@
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -30350,19 +30341,19 @@
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -30370,13 +30361,13 @@
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -31385,7 +31376,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31399,19 +31390,19 @@
         <v>3</v>
       </c>
       <c r="B1" s="7">
-        <v>43711</v>
+        <v>45172</v>
       </c>
       <c r="C1" s="7">
-        <v>43712</v>
+        <v>45173</v>
       </c>
       <c r="D1" s="7">
-        <v>43713</v>
+        <v>45174</v>
       </c>
       <c r="E1" s="7">
-        <v>43714</v>
+        <v>45175</v>
       </c>
       <c r="F1" s="7">
-        <v>43715</v>
+        <v>45176</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31438,19 +31429,19 @@
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -31458,19 +31449,19 @@
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -31478,19 +31469,19 @@
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -31498,19 +31489,19 @@
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -31538,19 +31529,19 @@
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -31558,19 +31549,19 @@
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -31578,19 +31569,19 @@
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -31598,16 +31589,16 @@
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -32613,7 +32604,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32666,19 +32657,19 @@
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -32686,19 +32677,19 @@
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -32706,19 +32697,19 @@
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -32726,19 +32717,19 @@
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -32755,7 +32746,7 @@
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -32766,19 +32757,19 @@
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -32786,19 +32777,19 @@
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -32806,19 +32797,19 @@
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -32826,13 +32817,13 @@
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -33841,8 +33832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" activeCellId="1" sqref="C18 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33901,13 +33892,13 @@
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -33921,13 +33912,13 @@
       <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -33941,13 +33932,13 @@
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -33961,13 +33952,13 @@
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -33984,7 +33975,7 @@
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -34001,13 +33992,13 @@
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -34021,13 +34012,13 @@
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -34041,13 +34032,13 @@
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -34061,7 +34052,7 @@
       <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -35104,22 +35095,22 @@
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -35127,22 +35118,22 @@
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -35150,22 +35141,22 @@
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -35173,22 +35164,22 @@
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -35196,22 +35187,22 @@
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -35219,22 +35210,22 @@
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -35242,22 +35233,22 @@
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -35265,22 +35256,22 @@
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -35288,22 +35279,22 @@
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -35311,22 +35302,22 @@
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -35334,22 +35325,22 @@
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -35357,22 +35348,22 @@
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -35380,22 +35371,22 @@
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -35403,22 +35394,22 @@
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -35426,22 +35417,22 @@
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -35449,22 +35440,22 @@
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -35472,22 +35463,22 @@
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>8</v>
       </c>
     </row>

--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="5"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="62">
   <si>
     <t>WEEK_NUM</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>העשרה</t>
+  </si>
+  <si>
+    <t>מסיימים ב 13:00</t>
   </si>
 </sst>
 </file>
@@ -28918,8 +28921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" activeCellId="1" sqref="B18 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28962,7 +28965,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>6</v>
@@ -33832,7 +33835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B14" activeCellId="1" sqref="C18 B14"/>
     </sheetView>
   </sheetViews>

--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -215,7 +215,7 @@
     <t>העשרה</t>
   </si>
   <si>
-    <t>מסיימים ב 13:00</t>
+    <t>מסיימים ב 12:45</t>
   </si>
 </sst>
 </file>
@@ -28922,7 +28922,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" activeCellId="1" sqref="B18 D7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="1"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -28921,8 +28921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30151,7 +30151,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30194,7 +30194,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>6</v>
@@ -30270,14 +30270,14 @@
       <c r="C6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>60</v>
+      <c r="D6" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>25</v>
+      <c r="F6" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -32607,7 +32607,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32660,80 +32660,80 @@
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32749,8 +32749,8 @@
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>28</v>
+      <c r="E7" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>18</v>
@@ -32760,74 +32760,74 @@
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>27</v>
+      <c r="B8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>28</v>
+      <c r="F8" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>27</v>
+      <c r="B9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>28</v>
+      <c r="F9" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>27</v>
+      <c r="B10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>28</v>
+      <c r="F10" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>27</v>
+      <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>8</v>
@@ -33835,8 +33835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B14" activeCellId="1" sqref="C18 B14"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33895,14 +33895,14 @@
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>28</v>
+      <c r="D3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -33915,14 +33915,14 @@
       <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>28</v>
+      <c r="D4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -33935,14 +33935,14 @@
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>28</v>
+      <c r="D5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -33955,14 +33955,14 @@
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>28</v>
+      <c r="D6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -33978,8 +33978,8 @@
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>28</v>
+      <c r="E7" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>18</v>
@@ -33995,14 +33995,14 @@
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>28</v>
+      <c r="D8" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>28</v>
+      <c r="F8" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -34015,14 +34015,14 @@
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>28</v>
+      <c r="D9" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>28</v>
+      <c r="F9" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -34035,14 +34035,14 @@
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>28</v>
+      <c r="D10" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>28</v>
+      <c r="F10" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -34055,8 +34055,8 @@
       <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>28</v>
+      <c r="D11" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>8</v>

--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="5"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="63">
   <si>
     <t>WEEK_NUM</t>
   </si>
@@ -217,6 +217,9 @@
   <si>
     <t>מסיימים ב 12:45</t>
   </si>
+  <si>
+    <t>הרצאה חיצונית</t>
+  </si>
 </sst>
 </file>
 
@@ -265,7 +268,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +365,12 @@
         <bgColor rgb="FFA8D08D"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -390,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,6 +477,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -31378,8 +31390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31444,8 +31456,8 @@
       <c r="E3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>26</v>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31464,16 +31476,16 @@
       <c r="E4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>26</v>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>26</v>
+      <c r="B5" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>26</v>
@@ -31484,16 +31496,16 @@
       <c r="E5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>26</v>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>26</v>
+      <c r="B6" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>26</v>
@@ -31504,8 +31516,8 @@
       <c r="E6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>26</v>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31525,7 +31537,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31544,8 +31556,8 @@
       <c r="E8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>26</v>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31564,8 +31576,8 @@
       <c r="E9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>26</v>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31584,8 +31596,8 @@
       <c r="E10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>26</v>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31601,11 +31613,11 @@
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>24</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32607,7 +32619,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F6"/>
+      <selection activeCell="F3" sqref="F3:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33835,8 +33847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="64">
   <si>
     <t>WEEK_NUM</t>
   </si>
@@ -220,6 +220,9 @@
   <si>
     <t>הרצאה חיצונית</t>
   </si>
+  <si>
+    <t>UNIX</t>
+  </si>
 </sst>
 </file>
 
@@ -268,7 +271,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +374,12 @@
         <bgColor rgb="FF00B0F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -399,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,6 +489,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -30163,7 +30175,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30329,7 +30341,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -30349,7 +30361,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -30369,7 +30381,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31391,7 +31403,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31464,8 +31476,8 @@
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>26</v>
+      <c r="B4" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>26</v>
@@ -31504,8 +31516,8 @@
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>62</v>
+      <c r="B6" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>26</v>
@@ -31547,8 +31559,8 @@
       <c r="B8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>26</v>
+      <c r="C8" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>26</v>
@@ -31567,8 +31579,8 @@
       <c r="B9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>26</v>
+      <c r="C9" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>26</v>
@@ -32610,7 +32622,7 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32619,7 +32631,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32685,7 +32697,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32721,8 +32733,8 @@
       <c r="D5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>58</v>
+      <c r="E5" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>27</v>
@@ -32741,8 +32753,8 @@
       <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>27</v>
+      <c r="E6" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>27</v>
@@ -32761,8 +32773,8 @@
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>27</v>
+      <c r="E7" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>18</v>
@@ -33904,8 +33916,8 @@
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
+      <c r="C3" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>27</v>
@@ -33924,8 +33936,8 @@
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
+      <c r="C4" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>27</v>
@@ -33944,8 +33956,8 @@
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>8</v>
+      <c r="C5" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>27</v>
@@ -33964,8 +33976,8 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>8</v>
+      <c r="C6" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>27</v>
@@ -34010,8 +34022,8 @@
       <c r="D8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>8</v>
+      <c r="E8" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>27</v>
@@ -34030,8 +34042,8 @@
       <c r="D9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>8</v>
+      <c r="E9" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>27</v>
@@ -34050,8 +34062,8 @@
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>8</v>
+      <c r="E10" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>27</v>
@@ -34070,8 +34082,8 @@
       <c r="D11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>8</v>
+      <c r="E11" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>29</v>

--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="3"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -28946,7 +28946,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30175,7 +30175,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31402,8 +31402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32631,7 +32631,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33859,8 +33859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -33860,7 +33860,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34002,8 +34002,8 @@
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>27</v>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>18</v>

--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="5"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="66">
   <si>
     <t>WEEK_NUM</t>
   </si>
@@ -223,6 +223,12 @@
   <si>
     <t>UNIX</t>
   </si>
+  <si>
+    <t>רון לא כאן</t>
+  </si>
+  <si>
+    <t>תרגיל מסכם JS</t>
+  </si>
 </sst>
 </file>
 
@@ -271,7 +277,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +386,12 @@
         <bgColor rgb="FF00B0F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -408,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,6 +504,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -31402,8 +31417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="B1:F1"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31449,7 +31464,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31468,8 +31483,8 @@
       <c r="E3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>8</v>
+      <c r="F3" s="29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31488,8 +31503,8 @@
       <c r="E4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>8</v>
+      <c r="F4" s="29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31505,11 +31520,11 @@
       <c r="D5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>8</v>
+      <c r="E5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31522,14 +31537,14 @@
       <c r="C6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>8</v>
+      <c r="E6" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31549,7 +31564,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31559,17 +31574,17 @@
       <c r="B8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>63</v>
+      <c r="C8" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>8</v>
+      <c r="E8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31579,17 +31594,17 @@
       <c r="B9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>63</v>
+      <c r="C9" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>8</v>
+      <c r="E9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31605,11 +31620,11 @@
       <c r="D10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>8</v>
+      <c r="E10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31628,8 +31643,8 @@
       <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>8</v>
+      <c r="F11" s="29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32631,7 +32646,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33859,7 +33874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="3"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="65">
   <si>
     <t>WEEK_NUM</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>מעבר לשעות</t>
-  </si>
-  <si>
-    <t>מבוא ל React</t>
   </si>
   <si>
     <t>מבוא לצד שרת</t>
@@ -29004,7 +29001,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>6</v>
@@ -29087,7 +29084,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -30233,7 +30230,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>6</v>
@@ -30316,7 +30313,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31417,7 +31414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -31464,7 +31461,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31484,7 +31481,7 @@
         <v>26</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31492,7 +31489,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>26</v>
@@ -31504,7 +31501,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31512,7 +31509,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>26</v>
@@ -31521,10 +31518,10 @@
         <v>26</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31541,10 +31538,10 @@
         <v>26</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31584,7 +31581,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31604,7 +31601,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31624,7 +31621,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31644,7 +31641,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32645,8 +32642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32700,7 +32697,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>28</v>
@@ -32711,8 +32708,8 @@
       <c r="E3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>58</v>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32720,7 +32717,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>28</v>
@@ -32731,8 +32728,8 @@
       <c r="E4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>27</v>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32751,8 +32748,8 @@
       <c r="E5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>27</v>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="66">
   <si>
     <t>WEEK_NUM</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>תרגיל מסכם JS</t>
+  </si>
+  <si>
+    <t>מבוא ל React</t>
   </si>
 </sst>
 </file>
@@ -31415,7 +31418,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B5" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32643,7 +32646,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32708,8 +32711,8 @@
       <c r="E3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>8</v>
+      <c r="F3" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32728,8 +32731,8 @@
       <c r="E4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>8</v>
+      <c r="F4" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32748,8 +32751,8 @@
       <c r="E5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>8</v>
+      <c r="F5" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32768,8 +32771,8 @@
       <c r="E6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>27</v>
+      <c r="F6" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32785,8 +32788,8 @@
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>28</v>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>18</v>
@@ -32805,11 +32808,11 @@
       <c r="D8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>27</v>
+      <c r="E8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32825,11 +32828,11 @@
       <c r="D9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>27</v>
+      <c r="E9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32845,11 +32848,11 @@
       <c r="D10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>27</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32865,11 +32868,11 @@
       <c r="D11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>24</v>
+      <c r="E11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33872,7 +33875,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LUZ2.xlsx
+++ b/LUZ2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="4"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -32645,8 +32645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32808,8 +32808,8 @@
       <c r="D8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>65</v>
+      <c r="E8" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>61</v>
@@ -32828,8 +32828,8 @@
       <c r="D9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>65</v>
+      <c r="E9" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>61</v>
@@ -32848,8 +32848,8 @@
       <c r="D10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>27</v>
+      <c r="E10" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>61</v>
@@ -32868,8 +32868,8 @@
       <c r="D11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>27</v>
+      <c r="E11" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>61</v>
@@ -33874,8 +33874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33932,7 +33932,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>27</v>
